--- a/biology/Histoire de la zoologie et de la botanique/Louis_Eugène_Robert/Louis_Eugène_Robert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Eugène_Robert/Louis_Eugène_Robert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Eug%C3%A8ne_Robert</t>
+          <t>Louis_Eugène_Robert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Robert ou Louis Eugène Robert[2],[3](Meudon le 6 décembre 1806[4] - Sézanne le 28 mai 1882[5],[6])  est un naturaliste plus précisément un  géologue qui habite la Ville de Meudon située à l'époque en Seine-et-Oise, aujourd'hui dans les Hauts-de-Seine. Il est  maire de Meudon de 1870 à 1871.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Robert ou Louis Eugène Robert,(Meudon le 6 décembre 1806 - Sézanne le 28 mai 1882,)  est un naturaliste plus précisément un  géologue qui habite la Ville de Meudon située à l'époque en Seine-et-Oise, aujourd'hui dans les Hauts-de-Seine. Il est  maire de Meudon de 1870 à 1871.
 </t>
         </is>
       </c>
